--- a/theme/Muller-lyer/sampleData.xlsx
+++ b/theme/Muller-lyer/sampleData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takahashi/Google ドライブ/dev/KisojiOnline/theme/Muller-lyer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takahashi/Google ドライブ/dev/KisojiOnline/theme/Muller-lyer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E452370E-F630-3B44-AAE1-2E226159F211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1174455-A406-C749-B775-7F68453F22C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11440" yWindow="5460" windowWidth="28300" windowHeight="17440" xr2:uid="{5532C4C0-7B9F-2C41-8A02-F475B1802B71}"/>
+    <workbookView xWindow="5300" yWindow="3560" windowWidth="28300" windowHeight="17440" xr2:uid="{5532C4C0-7B9F-2C41-8A02-F475B1802B71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="11">
   <si>
     <t>rt</t>
   </si>
@@ -42,9 +34,6 @@
   </si>
   <si>
     <t>response_index</t>
-  </si>
-  <si>
-    <t>comp_angle</t>
   </si>
   <si>
     <t>up_down</t>
@@ -66,6 +55,9 @@
   </si>
   <si>
     <t>down</t>
+  </si>
+  <si>
+    <t>std_angle</t>
   </si>
 </sst>
 </file>
@@ -429,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFD062A-3615-5645-B38F-5C71DAEA83CE}">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G131"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -448,21 +440,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2304.3250001501201</v>
+        <v>1388.1700000201799</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -471,13 +463,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -485,7 +477,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>440.87500008754398</v>
+        <v>45.144999981857801</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -494,13 +486,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -508,7 +500,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>408.09000004082901</v>
+        <v>294.51000000699401</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -517,13 +509,13 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -531,7 +523,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>649.49000021442703</v>
+        <v>891.12000001477998</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -540,13 +532,13 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -554,7 +546,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>4202.3150001186796</v>
+        <v>1256.5699999977301</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -563,13 +555,13 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -577,7 +569,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>1490.7200001180099</v>
+        <v>454.59500001743402</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -586,128 +578,128 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>967.82999997958495</v>
+        <v>748.14500001957595</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
       <c r="D8">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>657.31000015512097</v>
+        <v>182.39999999059299</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>242.94000002555501</v>
+        <v>281.92000000854</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>1088.13000004738</v>
+        <v>1862.67999999108</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>193.59999988228</v>
+        <v>478.97500000544801</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -715,22 +707,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>378.904999932274</v>
+        <v>1162.56500000599</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -738,22 +730,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>1298.47000003792</v>
+        <v>178.779999987455</v>
       </c>
       <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
       <c r="D14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -761,157 +753,157 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>831.63000014610498</v>
+        <v>410.074999992502</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>585.57000011205605</v>
+        <v>591.59999998519197</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>200</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>160.31499998643901</v>
+        <v>2193.7399999878799</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>233.16000006161599</v>
+        <v>1064.52500002342</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>505.280000157654</v>
+        <v>261.20500001707097</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>1113.6550002265701</v>
+        <v>599.14999999455097</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>160</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>897.45999989099801</v>
+        <v>509.64499998372003</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>150</v>
@@ -922,229 +914,229 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>2065.8599999733201</v>
+        <v>261.30000001285202</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>347.34000009484498</v>
+        <v>1002.89000000339</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>791.78000008687297</v>
+        <v>223.895000002812</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>240</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>560.09000004269103</v>
+        <v>178.31499999738199</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>240</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>1849.07500003464</v>
+        <v>332.98500001546898</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>240</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>113.604999845847</v>
+        <v>279.03999999398297</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>240</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>1185.8699999283999</v>
+        <v>460.55499999783899</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>153.67000014521099</v>
+        <v>286.43499998725002</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>89.519999921321798</v>
+        <v>494.13999999523998</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>738.00999997183601</v>
+        <v>1002.69500000285</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
@@ -1152,22 +1144,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>632.08500016480605</v>
+        <v>1387.8900000127001</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
@@ -1175,45 +1167,45 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>1727.49499999918</v>
+        <v>270.98000000114502</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>673.79499995149604</v>
+        <v>138.594999996712</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -1221,22 +1213,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>217.57999993860699</v>
+        <v>328.32499998039498</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F35">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -1244,22 +1236,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>177.18999995850001</v>
+        <v>454.74499999545498</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F36">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
@@ -1267,22 +1259,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>209.315000101923</v>
+        <v>470.80499998992298</v>
       </c>
       <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
         <v>5</v>
       </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
       <c r="D37">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -1290,45 +1282,45 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>753.20999999530602</v>
+        <v>633.23000000673301</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F38">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>3737.9050001036298</v>
+        <v>1397.39500000723</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F39">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
@@ -1336,275 +1328,275 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>240.91499997302799</v>
+        <v>191.21499999891901</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F40">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>763.41500016860596</v>
+        <v>415.974999981699</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>297.74500010535098</v>
+        <v>547.26999998092595</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>167.45000006631</v>
+        <v>845.13999999035104</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>1585.2399999275799</v>
+        <v>946.65500000701195</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>785.66500009037497</v>
+        <v>428.90000002807898</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>2178.6100000608699</v>
+        <v>999.09000002662594</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46">
         <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>320.58999990113</v>
+        <v>250.65999999060199</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47">
         <v>110</v>
       </c>
       <c r="G47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>1074.0600000135601</v>
+        <v>215.889999992214</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48">
         <v>120</v>
       </c>
       <c r="G48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>1130.8399999979799</v>
+        <v>152.71999998367301</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49">
         <v>130</v>
       </c>
       <c r="G49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>182.62500013224701</v>
+        <v>912.23500002524804</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50">
         <v>140</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>881.31500012241304</v>
+        <v>741.56500000390201</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G51" t="s">
         <v>8</v>
@@ -1612,459 +1604,459 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>416.73999978229398</v>
+        <v>768.704999994952</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>1392.7599999587901</v>
+        <v>231.05000000214201</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>553.07500017806797</v>
+        <v>499.71500001265599</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>721.574999857693</v>
+        <v>98.125000018626395</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F55">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>232.07999998703599</v>
+        <v>317.10000001476101</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F56">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>153.420000104233</v>
+        <v>345.11500000371598</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F57">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>488.63499984145102</v>
+        <v>1055.3650000074399</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F58">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>769.450000021606</v>
+        <v>1232.0149999868499</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F59">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>617.23500001244201</v>
+        <v>110.015000012936</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D60">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F60">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>1209.6550001297101</v>
+        <v>1066.81499999831</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F61">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>2817.8149999584998</v>
+        <v>203.99999999790401</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F62">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>1344.0300000365801</v>
+        <v>196.14499999443001</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F63">
         <v>120</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>528.33000011742104</v>
+        <v>673.37500001303795</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F64">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>184.335000114515</v>
+        <v>745.41000000317501</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F65">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>145.27499978430501</v>
+        <v>807.62999999569695</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F66">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>145.10500011965601</v>
+        <v>2446.7650000005901</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F67">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>1112.2149999719099</v>
+        <v>271.07000001706098</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F68">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="G68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>1905.7149998843599</v>
+        <v>362.67499998211798</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F69">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>687.51500011421695</v>
+        <v>2241.80500002694</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F70">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>273.17000017501402</v>
+        <v>1306.6300000064</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F71">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G71" t="s">
         <v>8</v>
@@ -2072,206 +2064,206 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>617.55499988794304</v>
+        <v>463.340000016614</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>124.319999944418</v>
+        <v>213.05500000016701</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>102.865000022575</v>
+        <v>211.605000018607</v>
       </c>
       <c r="B74">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>137.460000114515</v>
+        <v>497.95499999891001</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75">
         <v>3</v>
       </c>
       <c r="D75">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>89.374999981373506</v>
+        <v>671.89999998663495</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76">
         <v>4</v>
       </c>
       <c r="D76">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>976.85500001534797</v>
+        <v>831.70999999856497</v>
       </c>
       <c r="B77">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <v>5</v>
       </c>
       <c r="D77">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>961.47500001825301</v>
+        <v>862.05500000505697</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78">
         <v>6</v>
       </c>
       <c r="D78">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="G78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>1041.0750000737601</v>
+        <v>1084.88000000943</v>
       </c>
       <c r="B79">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79">
         <v>7</v>
       </c>
       <c r="D79">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>665.87999998591795</v>
+        <v>1406.1950000177601</v>
       </c>
       <c r="B80">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80">
         <v>8</v>
       </c>
       <c r="D80">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G80" t="s">
         <v>8</v>
@@ -2279,22 +2271,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>401.12999989651098</v>
+        <v>1026.8550000037001</v>
       </c>
       <c r="B81">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D81">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F81">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G81" t="s">
         <v>8</v>
@@ -2302,275 +2294,275 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>153.524999972432</v>
+        <v>722.045000002253</v>
       </c>
       <c r="B82">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F82">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>136.47000002674699</v>
+        <v>2663.8549999915899</v>
       </c>
       <c r="B83">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>200.724999886006</v>
+        <v>129.60499999462601</v>
       </c>
       <c r="B84">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>394.71999998204399</v>
+        <v>53.155000001424902</v>
       </c>
       <c r="B85">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85">
+        <v>60</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85">
         <v>120</v>
       </c>
-      <c r="E85" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85">
-        <v>140</v>
-      </c>
       <c r="G85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>614.97499980032399</v>
+        <v>199.889999988954</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>2673.5100001096698</v>
+        <v>271.13499998813398</v>
       </c>
       <c r="B87">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>529.02000001631598</v>
+        <v>1068.90999997267</v>
       </c>
       <c r="B88">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>1112.57500015199</v>
+        <v>830.80999998492098</v>
       </c>
       <c r="B89">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>281.16500005125999</v>
+        <v>168.890000000828</v>
       </c>
       <c r="B90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F90">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="G90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>545.08999991230598</v>
+        <v>97.529999999096603</v>
       </c>
       <c r="B91">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>2438.9849998988202</v>
+        <v>549.44999999133802</v>
       </c>
       <c r="B92">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F92">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>3081.6099999938101</v>
+        <v>602.70000001764799</v>
       </c>
       <c r="B93">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C93">
         <v>4</v>
       </c>
       <c r="D93">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
@@ -2578,298 +2570,298 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>1176.5799999702699</v>
+        <v>447.17500000842801</v>
       </c>
       <c r="B94">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D94">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F94">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>289.510000031441</v>
+        <v>1008.03999998606</v>
       </c>
       <c r="B95">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>888.85500002652395</v>
+        <v>941.68499999795995</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D96">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="G96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>1194.46499994955</v>
+        <v>336.129999981494</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D97">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>752.085000043734</v>
+        <v>451.67499998933602</v>
       </c>
       <c r="B98">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D98">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>649.19000002555504</v>
+        <v>1062.94999999227</v>
       </c>
       <c r="B99">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>145.22500010207199</v>
+        <v>325.30999998561998</v>
       </c>
       <c r="B100">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F100">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="G100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>105.610000202432</v>
+        <v>169.350000011036</v>
       </c>
       <c r="B101">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F101">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>255.98999997600899</v>
+        <v>193.315000011352</v>
       </c>
       <c r="B102">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
       <c r="D102">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F102">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>569.32500004768303</v>
+        <v>257.77500000549401</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C103">
         <v>4</v>
       </c>
       <c r="D103">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F103">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="G103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>241.15499993786199</v>
+        <v>224.53000000678</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104">
         <v>5</v>
       </c>
       <c r="D104">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F104">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>1081.49999985471</v>
+        <v>260.74500000686299</v>
       </c>
       <c r="B105">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C105">
         <v>6</v>
       </c>
       <c r="D105">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F105">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="G105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>743.79500001668896</v>
+        <v>665.03499998361804</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C106">
         <v>7</v>
       </c>
       <c r="D106">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F106">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="G106" t="s">
         <v>8</v>
@@ -2877,22 +2869,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>745.28499995358197</v>
+        <v>649.42000000155497</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D107">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F107">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -2900,22 +2892,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>265.16499998979202</v>
+        <v>745.39000002550802</v>
       </c>
       <c r="B108">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D108">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E108" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F108">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="G108" t="s">
         <v>8</v>
@@ -2923,22 +2915,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>1104.6649999916499</v>
+        <v>1332.75499998126</v>
       </c>
       <c r="B109">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D109">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E109" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F109">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G109" t="s">
         <v>8</v>
@@ -2946,484 +2938,1312 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>1385.6099999975399</v>
+        <v>254.66499998583399</v>
       </c>
       <c r="B110">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D110">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E110" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F110">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>2920.1749998610399</v>
+        <v>651.66500001214399</v>
       </c>
       <c r="B111">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="E111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F111">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G111" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>1201.73000008799</v>
+        <v>247.24500000593201</v>
       </c>
       <c r="B112">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F112">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>151.62499994039501</v>
+        <v>161.555000027874</v>
       </c>
       <c r="B113">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F113">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>161.43499989993799</v>
+        <v>145.54500000667699</v>
       </c>
       <c r="B114">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F114">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>183.91500017605699</v>
+        <v>409.92999999434602</v>
       </c>
       <c r="B115">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D115">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F115">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>1385.52000001072</v>
+        <v>178.90499997884001</v>
       </c>
       <c r="B116">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F116">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>1282.17000002041</v>
+        <v>300.27499998686801</v>
       </c>
       <c r="B117">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C117">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D117">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F117">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>3011.5449998993399</v>
+        <v>650.43000000878203</v>
       </c>
       <c r="B118">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D118">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F118">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G118" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>1121.37999990955</v>
+        <v>284.98500000568998</v>
       </c>
       <c r="B119">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D119">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F119">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G119" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>169.784999918192</v>
+        <v>1200.03000000724</v>
       </c>
       <c r="B120">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D120">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F120">
         <v>190</v>
       </c>
       <c r="G120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>152.76500000618299</v>
+        <v>658.68500000215101</v>
       </c>
       <c r="B121">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F121">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="G121" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>873.43499995768002</v>
+        <v>95.2499999839346</v>
       </c>
       <c r="B122">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F122">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="G122" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>1681.6499999258599</v>
+        <v>77.134999999543595</v>
       </c>
       <c r="B123">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F123">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="G123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>959.98000004328696</v>
+        <v>103.909999976167</v>
       </c>
       <c r="B124">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D124">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F124">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>1103.2200001645799</v>
+        <v>152.065000002039</v>
       </c>
       <c r="B125">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D125">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F125">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="G125" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>184.420000063255</v>
+        <v>464.79500000714302</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D126">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F126">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G126" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>136.954999994486</v>
+        <v>335.600000020349</v>
       </c>
       <c r="B127">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D127">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F127">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="G127" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>689.50499990023604</v>
+        <v>622.78999999398297</v>
       </c>
       <c r="B128">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D128">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F128">
         <v>170</v>
       </c>
       <c r="G128" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>1481.2600000295699</v>
+        <v>552.40000001503995</v>
       </c>
       <c r="B129">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D129">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F129">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G129" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>473.20500016212401</v>
+        <v>1755.2549999963901</v>
       </c>
       <c r="B130">
+        <v>15</v>
+      </c>
+      <c r="C130">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>300</v>
+      </c>
+      <c r="E130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130">
+        <v>190</v>
+      </c>
+      <c r="G130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>143.760000006295</v>
+      </c>
+      <c r="B131">
+        <v>15</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>300</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131">
+        <v>200</v>
+      </c>
+      <c r="G131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>613.52000001352201</v>
+      </c>
+      <c r="B132">
+        <v>16</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>120</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132">
+        <v>230</v>
+      </c>
+      <c r="G132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>129.535000014584</v>
+      </c>
+      <c r="B133">
+        <v>16</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>120</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133">
+        <v>220</v>
+      </c>
+      <c r="G133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>118.589999998221</v>
+      </c>
+      <c r="B134">
+        <v>16</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>120</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134">
+        <v>210</v>
+      </c>
+      <c r="G134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>86.4799999981187</v>
+      </c>
+      <c r="B135">
+        <v>16</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>120</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135">
+        <v>200</v>
+      </c>
+      <c r="G135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>201.10000000568101</v>
+      </c>
+      <c r="B136">
+        <v>16</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>120</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136">
+        <v>190</v>
+      </c>
+      <c r="G136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>420.44499999610701</v>
+      </c>
+      <c r="B137">
+        <v>16</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>120</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137">
+        <v>180</v>
+      </c>
+      <c r="G137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>648.59000002616006</v>
+      </c>
+      <c r="B138">
+        <v>16</v>
+      </c>
+      <c r="C138">
+        <v>6</v>
+      </c>
+      <c r="D138">
+        <v>120</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138">
+        <v>170</v>
+      </c>
+      <c r="G138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>687.19499997678201</v>
+      </c>
+      <c r="B139">
+        <v>16</v>
+      </c>
+      <c r="C139">
+        <v>7</v>
+      </c>
+      <c r="D139">
+        <v>120</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139">
+        <v>160</v>
+      </c>
+      <c r="G139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>945.70000001112896</v>
+      </c>
+      <c r="B140">
+        <v>16</v>
+      </c>
+      <c r="C140">
+        <v>8</v>
+      </c>
+      <c r="D140">
+        <v>120</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140">
+        <v>150</v>
+      </c>
+      <c r="G140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>520.88500000536396</v>
+      </c>
+      <c r="B141">
+        <v>16</v>
+      </c>
+      <c r="C141">
+        <v>9</v>
+      </c>
+      <c r="D141">
+        <v>120</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141">
+        <v>140</v>
+      </c>
+      <c r="G141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>1098.1399999873199</v>
+      </c>
+      <c r="B142">
+        <v>17</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>180</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142">
+        <v>230</v>
+      </c>
+      <c r="G142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>55.434999987483003</v>
+      </c>
+      <c r="B143">
+        <v>17</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>180</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143">
+        <v>220</v>
+      </c>
+      <c r="G143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>119.819999992614</v>
+      </c>
+      <c r="B144">
+        <v>17</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>180</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144">
+        <v>210</v>
+      </c>
+      <c r="G144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>141.83499998762201</v>
+      </c>
+      <c r="B145">
+        <v>17</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>180</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145">
+        <v>200</v>
+      </c>
+      <c r="G145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>166.80999999516601</v>
+      </c>
+      <c r="B146">
+        <v>17</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>180</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146">
+        <v>190</v>
+      </c>
+      <c r="G146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>629.894999990938</v>
+      </c>
+      <c r="B147">
+        <v>17</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>180</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147">
+        <v>180</v>
+      </c>
+      <c r="G147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>469.05499999411398</v>
+      </c>
+      <c r="B148">
+        <v>17</v>
+      </c>
+      <c r="C148">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>180</v>
+      </c>
+      <c r="E148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148">
+        <v>170</v>
+      </c>
+      <c r="G148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>989.75000000791601</v>
+      </c>
+      <c r="B149">
+        <v>17</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+      <c r="D149">
+        <v>180</v>
+      </c>
+      <c r="E149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149">
+        <v>160</v>
+      </c>
+      <c r="G149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>733.50000000209502</v>
+      </c>
+      <c r="B150">
+        <v>17</v>
+      </c>
+      <c r="C150">
+        <v>8</v>
+      </c>
+      <c r="D150">
+        <v>180</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150">
+        <v>150</v>
+      </c>
+      <c r="G150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>531.68499999446794</v>
+      </c>
+      <c r="B151">
+        <v>18</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>240</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151">
+        <v>230</v>
+      </c>
+      <c r="G151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>130.42000000132199</v>
+      </c>
+      <c r="B152">
+        <v>18</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>240</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152">
+        <v>220</v>
+      </c>
+      <c r="G152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>62.849999987520199</v>
+      </c>
+      <c r="B153">
+        <v>18</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>240</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153">
+        <v>210</v>
+      </c>
+      <c r="G153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>182.95499999658199</v>
+      </c>
+      <c r="B154">
+        <v>18</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>240</v>
+      </c>
+      <c r="E154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154">
+        <v>200</v>
+      </c>
+      <c r="G154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>112.815000000409</v>
+      </c>
+      <c r="B155">
+        <v>18</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>240</v>
+      </c>
+      <c r="E155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155">
+        <v>190</v>
+      </c>
+      <c r="G155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>307.56000001565502</v>
+      </c>
+      <c r="B156">
+        <v>18</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>240</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156">
+        <v>180</v>
+      </c>
+      <c r="G156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>1587.64499999233</v>
+      </c>
+      <c r="B157">
+        <v>18</v>
+      </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>240</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157">
+        <v>170</v>
+      </c>
+      <c r="G157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>852.92000000481403</v>
+      </c>
+      <c r="B158">
+        <v>18</v>
+      </c>
+      <c r="C158">
+        <v>7</v>
+      </c>
+      <c r="D158">
+        <v>240</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158">
+        <v>160</v>
+      </c>
+      <c r="G158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>557.40499999956205</v>
+      </c>
+      <c r="B159">
+        <v>18</v>
+      </c>
+      <c r="C159">
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>240</v>
+      </c>
+      <c r="E159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159">
+        <v>150</v>
+      </c>
+      <c r="G159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>766.05500001460302</v>
+      </c>
+      <c r="B160">
         <v>19</v>
       </c>
-      <c r="C130">
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>180</v>
+      </c>
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160">
+        <v>100</v>
+      </c>
+      <c r="G160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>194.06500001787199</v>
+      </c>
+      <c r="B161">
+        <v>19</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>180</v>
+      </c>
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161">
+        <v>110</v>
+      </c>
+      <c r="G161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>151.03499998804099</v>
+      </c>
+      <c r="B162">
+        <v>19</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>180</v>
+      </c>
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162">
+        <v>120</v>
+      </c>
+      <c r="G162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>123.324999993201</v>
+      </c>
+      <c r="B163">
+        <v>19</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>180</v>
+      </c>
+      <c r="E163" t="s">
+        <v>6</v>
+      </c>
+      <c r="F163">
+        <v>130</v>
+      </c>
+      <c r="G163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>434.84499998157798</v>
+      </c>
+      <c r="B164">
+        <v>19</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
+      <c r="D164">
+        <v>180</v>
+      </c>
+      <c r="E164" t="s">
+        <v>6</v>
+      </c>
+      <c r="F164">
+        <v>140</v>
+      </c>
+      <c r="G164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>337.02999999513798</v>
+      </c>
+      <c r="B165">
+        <v>19</v>
+      </c>
+      <c r="C165">
         <v>5</v>
       </c>
-      <c r="D130">
-        <v>180</v>
-      </c>
-      <c r="E130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130">
+      <c r="D165">
+        <v>180</v>
+      </c>
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165">
         <v>150</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>1601.4850000210499</v>
+      </c>
+      <c r="B166">
+        <v>19</v>
+      </c>
+      <c r="C166">
+        <v>6</v>
+      </c>
+      <c r="D166">
+        <v>180</v>
+      </c>
+      <c r="E166" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166">
+        <v>160</v>
+      </c>
+      <c r="G166" t="s">
         <v>8</v>
       </c>
     </row>
